--- a/Schéma/PCB_Connexion/Sources/REV 1.00 (2025-02-11)/04 - ASSEMBLY/Trottinette_Connexion_BOM REV 1.00.xlsx
+++ b/Schéma/PCB_Connexion/Sources/REV 1.00 (2025-02-11)/04 - ASSEMBLY/Trottinette_Connexion_BOM REV 1.00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable M-A\AppData\Local\Temp\Releases\Snapshot\1\Sources\REV 1.00 (2025-02-11)\04 - ASSEMBLY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Portable M-A\AppData\Local\Temp\Releases\Snapshot\2\Sources\REV 1.00 (2025-02-11)\04 - ASSEMBLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F101F3A-0665-4192-BC17-8DE5D3CDAE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44D59E6-16DE-498D-9B37-0E016A0CD004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
     <t>2025-02-11</t>
   </si>
   <si>
-    <t>10:29</t>
+    <t>11:12</t>
   </si>
   <si>
     <t>None</t>
